--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1609.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1609.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.152182973667028</v>
+        <v>0.5466346740722656</v>
       </c>
       <c r="B1">
-        <v>2.291891438943263</v>
+        <v>1.07183563709259</v>
       </c>
       <c r="C1">
-        <v>4.982345346398028</v>
+        <v>5.129419326782227</v>
       </c>
       <c r="D1">
-        <v>2.42566017889813</v>
+        <v>4.078717231750488</v>
       </c>
       <c r="E1">
-        <v>1.070582120339924</v>
+        <v>0.9885925650596619</v>
       </c>
     </row>
   </sheetData>
